--- a/LCA-Data/Materials/Materials_Lithography_Metals.xlsx
+++ b/LCA-Data/Materials/Materials_Lithography_Metals.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Dokumente\IAPP\PhD\Experiments\LCA\00_GitHub\Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773E81F5-CEEF-4959-BA2F-F32C257CDB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D9EA23-A539-45B1-B541-574960DD4379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5D2BB2C3-498A-4996-80BD-11DDD0B68C72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{5D2BB2C3-498A-4996-80BD-11DDD0B68C72}"/>
   </bookViews>
   <sheets>
     <sheet name="AZ MIF 726 " sheetId="6" r:id="rId1"/>
-    <sheet name="AZ1518 Resist" sheetId="1" r:id="rId2"/>
-    <sheet name="Chromium Etchant" sheetId="3" r:id="rId3"/>
-    <sheet name="Gold Etchant" sheetId="4" r:id="rId4"/>
-    <sheet name="PGMEA" sheetId="5" r:id="rId5"/>
+    <sheet name="Tabelle1" sheetId="7" r:id="rId2"/>
+    <sheet name="AZ1518 Resist" sheetId="1" r:id="rId3"/>
+    <sheet name="Chromium Etchant" sheetId="3" r:id="rId4"/>
+    <sheet name="Gold Etchant" sheetId="4" r:id="rId5"/>
+    <sheet name="PGMEA" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
   <si>
     <t>Inputs</t>
   </si>
@@ -157,6 +158,18 @@
   </si>
   <si>
     <t>*PGMEA</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
 </sst>
 </file>
@@ -655,21 +668,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5D8D70-9522-44C2-A6CB-685540AF5993}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="72.81640625" customWidth="1"/>
+    <col min="4" max="4" width="72.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -679,7 +692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -689,7 +702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
@@ -697,7 +710,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
@@ -705,7 +718,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -713,10 +726,10 @@
       <c r="C5" s="12"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -724,7 +737,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -738,7 +751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -749,7 +762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
@@ -757,7 +770,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -771,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -782,6 +795,11 @@
         <v>12</v>
       </c>
       <c r="D15" s="7"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -798,6 +816,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB19800E-73B5-475D-9872-FF9F65E85185}">
+  <dimension ref="B12:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D109000-FFCC-4927-99EA-DACA3EDDC7E1}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -805,15 +868,15 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="104" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -823,7 +886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
@@ -833,7 +896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
@@ -841,7 +904,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
@@ -849,7 +912,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
@@ -857,12 +920,12 @@
       <c r="C5" s="12"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -870,7 +933,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -884,7 +947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -895,7 +958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -906,7 +969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>1</v>
       </c>
@@ -914,7 +977,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -928,7 +991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -954,7 +1017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50615A60-09F8-484A-8D5D-62F37C9CAA0C}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -962,15 +1025,15 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="48.90625" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -980,7 +1043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
@@ -990,7 +1053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>24</v>
       </c>
@@ -998,7 +1061,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -1006,7 +1069,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>26</v>
       </c>
@@ -1014,10 +1077,10 @@
       <c r="C5" s="12"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1088,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1039,7 +1102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1050,7 +1113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -1061,7 +1124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1072,7 +1135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
@@ -1080,7 +1143,7 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +1157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1123,7 +1186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86068B25-2FEF-4ABC-8594-B8AD9F0B3337}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -1131,15 +1194,15 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="48.26953125" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -1149,7 +1212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -1159,7 +1222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>24</v>
       </c>
@@ -1167,7 +1230,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1175,7 +1238,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
@@ -1183,10 +1246,10 @@
       <c r="C5" s="12"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1257,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,7 +1271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1219,7 +1282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
@@ -1230,7 +1293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1241,7 +1304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
@@ -1249,7 +1312,7 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,7 +1326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -1288,7 +1351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10411A54-74AC-4296-88CF-7301BF36C55B}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1296,15 +1359,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="63.54296875" customWidth="1"/>
+    <col min="4" max="4" width="63.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -1314,7 +1377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
@@ -1324,10 +1387,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1398,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1349,7 +1412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>1</v>
       </c>
@@ -1357,7 +1420,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1371,7 +1434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1383,7 +1446,7 @@
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
